--- a/Gesamt-Ergebnisse.xlsx
+++ b/Gesamt-Ergebnisse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CF02DA-2041-4358-AB42-536C0657003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18709375-F6FB-4C39-941A-485219A08148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,16 +972,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1017,7 +1017,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="4632324"/>
+              <a:off x="7067550" y="4384674"/>
               <a:ext cx="9436100" cy="3248026"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1371,11 +1371,14 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AA451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2240,10 +2243,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>130</v>
@@ -2281,10 +2284,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>109</v>
@@ -2314,10 +2317,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>3</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
       </c>
       <c r="C24">
         <v>278</v>
@@ -2344,10 +2347,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>263</v>
@@ -2374,10 +2377,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>259</v>
@@ -2404,10 +2407,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>292</v>
@@ -2434,10 +2437,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>181</v>
@@ -2464,10 +2467,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>139</v>
@@ -2494,10 +2497,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>164</v>
@@ -2524,10 +2527,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>179</v>
@@ -2554,10 +2557,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>116</v>
@@ -2580,10 +2583,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>189</v>
@@ -2606,10 +2609,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>174</v>
@@ -2632,10 +2635,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>166</v>
@@ -2658,10 +2661,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>143</v>
@@ -2684,10 +2687,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>256</v>
@@ -2710,10 +2713,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>144</v>
@@ -2736,10 +2739,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>147</v>
@@ -2762,10 +2765,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>241</v>
@@ -2788,10 +2791,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>131</v>
@@ -2814,10 +2817,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>84</v>
@@ -2840,10 +2843,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>189</v>
@@ -2866,10 +2869,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>3</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
       </c>
       <c r="C44">
         <v>234</v>
@@ -2892,10 +2895,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>221</v>
@@ -2918,10 +2921,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>298</v>
@@ -2944,10 +2947,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>209</v>
@@ -2970,10 +2973,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>374</v>
@@ -2996,10 +2999,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>138</v>
@@ -3022,10 +3025,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>257</v>
@@ -3048,10 +3051,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>177</v>
@@ -3074,10 +3077,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>189</v>
@@ -3100,10 +3103,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>185</v>
@@ -3126,10 +3129,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>169</v>
@@ -3152,10 +3155,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>134</v>
@@ -3178,10 +3181,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>198</v>
@@ -3204,10 +3207,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>276</v>
@@ -3230,10 +3233,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>156</v>
@@ -3256,10 +3259,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59">
         <v>216</v>
@@ -3282,10 +3285,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>210</v>
@@ -3308,10 +3311,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>208</v>
@@ -3334,10 +3337,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>71</v>
@@ -3360,10 +3363,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>191</v>
@@ -3386,10 +3389,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>165</v>
@@ -3412,10 +3415,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
+        <v>14</v>
+      </c>
+      <c r="B65">
         <v>4</v>
-      </c>
-      <c r="B65">
-        <v>6</v>
       </c>
       <c r="C65">
         <v>272</v>
@@ -3438,10 +3441,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>257</v>
@@ -3464,10 +3467,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>188</v>
@@ -3490,10 +3493,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>213</v>
@@ -3516,10 +3519,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>257</v>
@@ -3542,10 +3545,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>283</v>
@@ -3568,10 +3571,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
         <v>225</v>
@@ -3594,10 +3597,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>97</v>
@@ -3620,10 +3623,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>258</v>
@@ -3646,10 +3649,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>127</v>
@@ -3672,10 +3675,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>215</v>
@@ -3698,10 +3701,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <v>133</v>
@@ -3724,10 +3727,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>196</v>
@@ -3750,10 +3753,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>139</v>
@@ -3776,10 +3779,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>120</v>
@@ -3802,10 +3805,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>123</v>
@@ -3828,10 +3831,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>106</v>
@@ -3854,10 +3857,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>223</v>
@@ -3880,10 +3883,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -3906,10 +3909,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <v>254</v>
@@ -3932,10 +3935,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
+        <v>34</v>
+      </c>
+      <c r="B85">
         <v>4</v>
-      </c>
-      <c r="B85">
-        <v>7</v>
       </c>
       <c r="C85">
         <v>185</v>
@@ -3958,10 +3961,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>193</v>
@@ -3984,10 +3987,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>200</v>
@@ -4010,10 +4013,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C88">
         <v>152</v>
@@ -4036,10 +4039,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C89">
         <v>135</v>
@@ -4062,10 +4065,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>266</v>
@@ -4088,10 +4091,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>230</v>
@@ -4114,10 +4117,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>142</v>
@@ -4140,10 +4143,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>227</v>
@@ -4166,10 +4169,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>302</v>
@@ -4192,10 +4195,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>157</v>
@@ -4218,10 +4221,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>184</v>
@@ -4244,10 +4247,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>129</v>
@@ -4270,10 +4273,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <v>188</v>
@@ -4296,10 +4299,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>114</v>
@@ -4322,10 +4325,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B100">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>181</v>
@@ -4348,10 +4351,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -4377,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <v>264</v>
@@ -4403,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103">
         <v>130</v>
@@ -4429,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104">
         <v>267</v>
@@ -4455,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -4481,7 +4484,7 @@
         <v>5</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106">
         <v>188</v>
@@ -4507,7 +4510,7 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107">
         <v>117</v>
@@ -4533,7 +4536,7 @@
         <v>7</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108">
         <v>204</v>
@@ -4559,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109">
         <v>303</v>
@@ -4585,7 +4588,7 @@
         <v>9</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110">
         <v>306</v>
@@ -4611,7 +4614,7 @@
         <v>10</v>
       </c>
       <c r="B111">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111">
         <v>183</v>
@@ -4637,7 +4640,7 @@
         <v>11</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112">
         <v>348</v>
@@ -4663,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113">
         <v>252</v>
@@ -4689,7 +4692,7 @@
         <v>13</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>306</v>
@@ -4715,7 +4718,7 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>258</v>
@@ -4741,7 +4744,7 @@
         <v>15</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116">
         <v>191</v>
@@ -4767,7 +4770,7 @@
         <v>16</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117">
         <v>155</v>
@@ -4793,7 +4796,7 @@
         <v>17</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118">
         <v>166</v>
@@ -4819,7 +4822,7 @@
         <v>18</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119">
         <v>318</v>
@@ -4845,7 +4848,7 @@
         <v>19</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120">
         <v>208</v>
@@ -4871,7 +4874,7 @@
         <v>20</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>106</v>
@@ -4894,10 +4897,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C122">
         <v>220</v>
@@ -4920,10 +4923,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C123">
         <v>206</v>
@@ -4946,10 +4949,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>222</v>
@@ -4972,10 +4975,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>127</v>
@@ -4998,10 +5001,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
+        <v>25</v>
+      </c>
+      <c r="B126">
         <v>5</v>
-      </c>
-      <c r="B126">
-        <v>9</v>
       </c>
       <c r="C126">
         <v>211</v>
@@ -5024,10 +5027,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C127">
         <v>157</v>
@@ -5050,10 +5053,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>171</v>
@@ -5076,10 +5079,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C129">
         <v>143</v>
@@ -5102,10 +5105,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C130">
         <v>163</v>
@@ -5128,10 +5131,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>174</v>
@@ -5154,10 +5157,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B132">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>290</v>
@@ -5180,10 +5183,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B133">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C133">
         <v>224</v>
@@ -5206,10 +5209,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B134">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>168</v>
@@ -5232,10 +5235,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>213</v>
@@ -5258,10 +5261,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B136">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>152</v>
@@ -5284,10 +5287,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C137">
         <v>251</v>
@@ -5310,10 +5313,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B138">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <v>240</v>
@@ -5336,10 +5339,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C139">
         <v>264</v>
@@ -5362,10 +5365,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C140">
         <v>168</v>
@@ -5388,10 +5391,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C141">
         <v>175</v>
@@ -5414,10 +5417,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B142">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C142">
         <v>115</v>
@@ -5440,10 +5443,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C143">
         <v>259</v>
@@ -5466,10 +5469,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C144">
         <v>120</v>
@@ -5492,10 +5495,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C145">
         <v>203</v>
@@ -5518,10 +5521,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
+        <v>45</v>
+      </c>
+      <c r="B146">
         <v>5</v>
-      </c>
-      <c r="B146">
-        <v>10</v>
       </c>
       <c r="C146">
         <v>126</v>
@@ -5544,10 +5547,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C147">
         <v>223</v>
@@ -5570,10 +5573,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B148">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C148">
         <v>222</v>
@@ -5596,10 +5599,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C149">
         <v>248</v>
@@ -5622,10 +5625,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B150">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C150">
         <v>175</v>
@@ -5648,10 +5651,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C151">
         <v>171</v>
@@ -5674,10 +5677,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B152">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C152">
         <v>248</v>
@@ -5700,10 +5703,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B153">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C153">
         <v>113</v>
@@ -5726,10 +5729,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C154">
         <v>236</v>
@@ -5752,10 +5755,10 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C155">
         <v>229</v>
@@ -5778,10 +5781,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B156">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C156">
         <v>229</v>
@@ -5804,10 +5807,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B157">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C157">
         <v>304</v>
@@ -5830,10 +5833,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C158">
         <v>217</v>
@@ -5856,10 +5859,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B159">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C159">
         <v>132</v>
@@ -5882,10 +5885,10 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B160">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C160">
         <v>161</v>
@@ -5908,10 +5911,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C161">
         <v>227</v>
@@ -5934,10 +5937,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B162">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C162">
         <v>128</v>
@@ -5960,10 +5963,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B163">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C163">
         <v>209</v>
@@ -5986,10 +5989,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C164">
         <v>211</v>
@@ -6012,10 +6015,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C165">
         <v>294</v>
@@ -6038,10 +6041,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C166">
         <v>188</v>
@@ -6064,10 +6067,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167">
+        <v>16</v>
+      </c>
+      <c r="B167">
         <v>6</v>
-      </c>
-      <c r="B167">
-        <v>11</v>
       </c>
       <c r="C167">
         <v>160</v>
@@ -6090,10 +6093,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B168">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C168">
         <v>225</v>
@@ -6116,10 +6119,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C169">
         <v>206</v>
@@ -6142,10 +6145,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B170">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C170">
         <v>266</v>
@@ -6168,10 +6171,10 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B171">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C171">
         <v>303</v>
@@ -6194,10 +6197,10 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B172">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C172">
         <v>227</v>
@@ -6220,10 +6223,10 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B173">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C173">
         <v>242</v>
@@ -6246,10 +6249,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B174">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C174">
         <v>271</v>
@@ -6272,10 +6275,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B175">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C175">
         <v>200</v>
@@ -6298,10 +6301,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B176">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C176">
         <v>182</v>
@@ -6324,10 +6327,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C177">
         <v>195</v>
@@ -6350,10 +6353,10 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B178">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C178">
         <v>208</v>
@@ -6376,10 +6379,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B179">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C179">
         <v>194</v>
@@ -6402,10 +6405,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B180">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C180">
         <v>166</v>
@@ -6428,10 +6431,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B181">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C181">
         <v>183</v>
@@ -6453,6 +6456,12 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>31</v>
+      </c>
+      <c r="B182">
+        <v>6</v>
+      </c>
       <c r="C182">
         <v>250</v>
       </c>
@@ -6473,6 +6482,12 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>32</v>
+      </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
       <c r="C183">
         <v>278</v>
       </c>
@@ -6493,6 +6508,12 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>33</v>
+      </c>
+      <c r="B184">
+        <v>6</v>
+      </c>
       <c r="C184">
         <v>241</v>
       </c>
@@ -6513,6 +6534,12 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>34</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
       <c r="C185">
         <v>136</v>
       </c>
@@ -6533,6 +6560,12 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>35</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
       <c r="C186">
         <v>205</v>
       </c>
@@ -6553,6 +6586,12 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>36</v>
+      </c>
+      <c r="B187">
+        <v>6</v>
+      </c>
       <c r="C187">
         <v>228</v>
       </c>
@@ -6573,6 +6612,12 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>37</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
       <c r="C188">
         <v>171</v>
       </c>
@@ -6593,6 +6638,12 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>38</v>
+      </c>
+      <c r="B189">
+        <v>6</v>
+      </c>
       <c r="C189">
         <v>274</v>
       </c>
@@ -6613,6 +6664,12 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>39</v>
+      </c>
+      <c r="B190">
+        <v>6</v>
+      </c>
       <c r="C190">
         <v>265</v>
       </c>
@@ -6633,6 +6690,12 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>40</v>
+      </c>
+      <c r="B191">
+        <v>6</v>
+      </c>
       <c r="C191">
         <v>171</v>
       </c>
@@ -6653,6 +6716,12 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>41</v>
+      </c>
+      <c r="B192">
+        <v>6</v>
+      </c>
       <c r="C192">
         <v>176</v>
       </c>
@@ -6672,7 +6741,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>42</v>
+      </c>
+      <c r="B193">
+        <v>6</v>
+      </c>
       <c r="C193">
         <v>215</v>
       </c>
@@ -6692,7 +6767,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>43</v>
+      </c>
+      <c r="B194">
+        <v>6</v>
+      </c>
       <c r="C194">
         <v>172</v>
       </c>
@@ -6712,7 +6793,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>44</v>
+      </c>
+      <c r="B195">
+        <v>6</v>
+      </c>
       <c r="C195">
         <v>296</v>
       </c>
@@ -6732,7 +6819,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>45</v>
+      </c>
+      <c r="B196">
+        <v>6</v>
+      </c>
       <c r="C196">
         <v>274</v>
       </c>
@@ -6752,7 +6845,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>46</v>
+      </c>
+      <c r="B197">
+        <v>6</v>
+      </c>
       <c r="C197">
         <v>221</v>
       </c>
@@ -6772,7 +6871,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>47</v>
+      </c>
+      <c r="B198">
+        <v>6</v>
+      </c>
       <c r="C198">
         <v>208</v>
       </c>
@@ -6792,7 +6897,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>48</v>
+      </c>
+      <c r="B199">
+        <v>6</v>
+      </c>
       <c r="C199">
         <v>167</v>
       </c>
@@ -6812,7 +6923,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="200" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>49</v>
+      </c>
+      <c r="B200">
+        <v>6</v>
+      </c>
       <c r="C200">
         <v>325</v>
       </c>
@@ -6832,7 +6949,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="201" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>50</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
+      </c>
       <c r="C201">
         <v>234</v>
       </c>
@@ -6852,7 +6975,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>7</v>
+      </c>
       <c r="C202">
         <v>216</v>
       </c>
@@ -6872,7 +7001,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>7</v>
+      </c>
       <c r="C203">
         <v>174</v>
       </c>
@@ -6892,7 +7027,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>3</v>
+      </c>
+      <c r="B204">
+        <v>7</v>
+      </c>
       <c r="C204">
         <v>304</v>
       </c>
@@ -6912,7 +7053,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="205" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>7</v>
+      </c>
       <c r="C205">
         <v>147</v>
       </c>
@@ -6932,7 +7079,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="206" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <v>7</v>
+      </c>
       <c r="C206">
         <v>171</v>
       </c>
@@ -6952,7 +7105,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="207" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>6</v>
+      </c>
+      <c r="B207">
+        <v>7</v>
+      </c>
       <c r="C207">
         <v>262</v>
       </c>
@@ -6972,7 +7131,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="208" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>7</v>
+      </c>
+      <c r="B208">
+        <v>7</v>
+      </c>
       <c r="C208">
         <v>161</v>
       </c>
@@ -6992,7 +7157,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>8</v>
+      </c>
+      <c r="B209">
+        <v>7</v>
+      </c>
       <c r="C209">
         <v>165</v>
       </c>
@@ -7012,7 +7183,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>9</v>
+      </c>
+      <c r="B210">
+        <v>7</v>
+      </c>
       <c r="C210">
         <v>278</v>
       </c>
@@ -7032,7 +7209,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="211" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>10</v>
+      </c>
+      <c r="B211">
+        <v>7</v>
+      </c>
       <c r="C211">
         <v>265</v>
       </c>
@@ -7052,7 +7235,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>11</v>
+      </c>
+      <c r="B212">
+        <v>7</v>
+      </c>
       <c r="C212">
         <v>239</v>
       </c>
@@ -7072,7 +7261,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>12</v>
+      </c>
+      <c r="B213">
+        <v>7</v>
+      </c>
       <c r="C213">
         <v>242</v>
       </c>
@@ -7092,7 +7287,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>13</v>
+      </c>
+      <c r="B214">
+        <v>7</v>
+      </c>
       <c r="C214">
         <v>189</v>
       </c>
@@ -7112,7 +7313,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>14</v>
+      </c>
+      <c r="B215">
+        <v>7</v>
+      </c>
       <c r="C215">
         <v>187</v>
       </c>
@@ -7132,7 +7339,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="216" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>15</v>
+      </c>
+      <c r="B216">
+        <v>7</v>
+      </c>
       <c r="C216">
         <v>196</v>
       </c>
@@ -7152,7 +7365,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="217" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>16</v>
+      </c>
+      <c r="B217">
+        <v>7</v>
+      </c>
       <c r="C217">
         <v>207</v>
       </c>
@@ -7172,7 +7391,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="218" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>17</v>
+      </c>
+      <c r="B218">
+        <v>7</v>
+      </c>
       <c r="C218">
         <v>147</v>
       </c>
@@ -7192,7 +7417,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="219" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>18</v>
+      </c>
+      <c r="B219">
+        <v>7</v>
+      </c>
       <c r="C219">
         <v>196</v>
       </c>
@@ -7212,7 +7443,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>19</v>
+      </c>
+      <c r="B220">
+        <v>7</v>
+      </c>
       <c r="C220">
         <v>194</v>
       </c>
@@ -7232,7 +7469,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>20</v>
+      </c>
+      <c r="B221">
+        <v>7</v>
+      </c>
       <c r="C221">
         <v>231</v>
       </c>
@@ -7252,7 +7495,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="222" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>21</v>
+      </c>
+      <c r="B222">
+        <v>7</v>
+      </c>
       <c r="C222">
         <v>158</v>
       </c>
@@ -7272,7 +7521,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="223" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>22</v>
+      </c>
+      <c r="B223">
+        <v>7</v>
+      </c>
       <c r="C223">
         <v>213</v>
       </c>
@@ -7292,7 +7547,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>23</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
       <c r="C224">
         <v>263</v>
       </c>
@@ -7312,7 +7573,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>24</v>
+      </c>
+      <c r="B225">
+        <v>7</v>
+      </c>
       <c r="C225">
         <v>215</v>
       </c>
@@ -7332,7 +7599,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>25</v>
+      </c>
+      <c r="B226">
+        <v>7</v>
+      </c>
       <c r="C226">
         <v>250</v>
       </c>
@@ -7352,7 +7625,13 @@
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>26</v>
+      </c>
+      <c r="B227">
+        <v>7</v>
+      </c>
       <c r="C227">
         <v>259</v>
       </c>
@@ -7372,7 +7651,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>27</v>
+      </c>
+      <c r="B228">
+        <v>7</v>
+      </c>
       <c r="C228">
         <v>226</v>
       </c>
@@ -7392,7 +7677,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>28</v>
+      </c>
+      <c r="B229">
+        <v>7</v>
+      </c>
       <c r="C229">
         <v>264</v>
       </c>
@@ -7412,7 +7703,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="230" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>29</v>
+      </c>
+      <c r="B230">
+        <v>7</v>
+      </c>
       <c r="C230">
         <v>230</v>
       </c>
@@ -7432,7 +7729,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>30</v>
+      </c>
+      <c r="B231">
+        <v>7</v>
+      </c>
       <c r="C231">
         <v>244</v>
       </c>
@@ -7452,7 +7755,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>31</v>
+      </c>
+      <c r="B232">
+        <v>7</v>
+      </c>
       <c r="C232">
         <v>179</v>
       </c>
@@ -7472,7 +7781,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="233" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>32</v>
+      </c>
+      <c r="B233">
+        <v>7</v>
+      </c>
       <c r="C233">
         <v>143</v>
       </c>
@@ -7492,7 +7807,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="234" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>33</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
       <c r="C234">
         <v>195</v>
       </c>
@@ -7512,7 +7833,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="235" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>34</v>
+      </c>
+      <c r="B235">
+        <v>7</v>
+      </c>
       <c r="C235">
         <v>248</v>
       </c>
@@ -7532,7 +7859,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="236" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>35</v>
+      </c>
+      <c r="B236">
+        <v>7</v>
+      </c>
       <c r="C236">
         <v>121</v>
       </c>
@@ -7552,7 +7885,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="237" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>36</v>
+      </c>
+      <c r="B237">
+        <v>7</v>
+      </c>
       <c r="C237">
         <v>160</v>
       </c>
@@ -7572,7 +7911,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="238" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>37</v>
+      </c>
+      <c r="B238">
+        <v>7</v>
+      </c>
       <c r="C238">
         <v>196</v>
       </c>
@@ -7592,7 +7937,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="239" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>38</v>
+      </c>
+      <c r="B239">
+        <v>7</v>
+      </c>
       <c r="C239">
         <v>162</v>
       </c>
@@ -7612,7 +7963,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="240" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>39</v>
+      </c>
+      <c r="B240">
+        <v>7</v>
+      </c>
       <c r="C240">
         <v>270</v>
       </c>
@@ -7632,7 +7989,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>40</v>
+      </c>
+      <c r="B241">
+        <v>7</v>
+      </c>
       <c r="C241">
         <v>199</v>
       </c>
@@ -7652,7 +8015,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="242" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>41</v>
+      </c>
+      <c r="B242">
+        <v>7</v>
+      </c>
       <c r="C242">
         <v>192</v>
       </c>
@@ -7672,7 +8041,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="243" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>42</v>
+      </c>
+      <c r="B243">
+        <v>7</v>
+      </c>
       <c r="C243">
         <v>220</v>
       </c>
@@ -7692,7 +8067,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>43</v>
+      </c>
+      <c r="B244">
+        <v>7</v>
+      </c>
       <c r="C244">
         <v>157</v>
       </c>
@@ -7712,7 +8093,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>44</v>
+      </c>
+      <c r="B245">
+        <v>7</v>
+      </c>
       <c r="C245">
         <v>257</v>
       </c>
@@ -7732,7 +8119,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>45</v>
+      </c>
+      <c r="B246">
+        <v>7</v>
+      </c>
       <c r="C246">
         <v>212</v>
       </c>
@@ -7752,7 +8145,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="247" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>46</v>
+      </c>
+      <c r="B247">
+        <v>7</v>
+      </c>
       <c r="C247">
         <v>172</v>
       </c>
@@ -7772,7 +8171,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="248" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>47</v>
+      </c>
+      <c r="B248">
+        <v>7</v>
+      </c>
       <c r="C248">
         <v>232</v>
       </c>
@@ -7792,7 +8197,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>48</v>
+      </c>
+      <c r="B249">
+        <v>7</v>
+      </c>
       <c r="C249">
         <v>242</v>
       </c>
@@ -7812,7 +8223,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>49</v>
+      </c>
+      <c r="B250">
+        <v>7</v>
+      </c>
       <c r="C250">
         <v>166</v>
       </c>
@@ -7832,7 +8249,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>50</v>
+      </c>
+      <c r="B251">
+        <v>7</v>
+      </c>
       <c r="C251">
         <v>251</v>
       </c>
@@ -7852,7 +8275,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="252" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>8</v>
+      </c>
       <c r="C252">
         <v>269</v>
       </c>
@@ -7872,7 +8301,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253">
+        <v>8</v>
+      </c>
       <c r="C253">
         <v>181</v>
       </c>
@@ -7892,7 +8327,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="254" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254">
+        <v>8</v>
+      </c>
       <c r="C254">
         <v>266</v>
       </c>
@@ -7912,7 +8353,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="255" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255">
+        <v>8</v>
+      </c>
       <c r="C255">
         <v>196</v>
       </c>
@@ -7932,7 +8379,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="256" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256">
+        <v>8</v>
+      </c>
       <c r="C256">
         <v>210</v>
       </c>
@@ -7952,7 +8405,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="257" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>6</v>
+      </c>
+      <c r="B257">
+        <v>8</v>
+      </c>
       <c r="C257">
         <v>152</v>
       </c>
@@ -7972,7 +8431,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>7</v>
+      </c>
+      <c r="B258">
+        <v>8</v>
+      </c>
       <c r="C258">
         <v>196</v>
       </c>
@@ -7992,7 +8457,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="259" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>8</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
       <c r="C259">
         <v>213</v>
       </c>
@@ -8012,7 +8483,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>9</v>
+      </c>
+      <c r="B260">
+        <v>8</v>
+      </c>
       <c r="C260">
         <v>181</v>
       </c>
@@ -8032,7 +8509,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="261" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>10</v>
+      </c>
+      <c r="B261">
+        <v>8</v>
+      </c>
       <c r="C261">
         <v>169</v>
       </c>
@@ -8052,7 +8535,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="262" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>11</v>
+      </c>
+      <c r="B262">
+        <v>8</v>
+      </c>
       <c r="C262">
         <v>163</v>
       </c>
@@ -8072,7 +8561,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>12</v>
+      </c>
+      <c r="B263">
+        <v>8</v>
+      </c>
       <c r="C263">
         <v>164</v>
       </c>
@@ -8092,7 +8587,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="264" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>13</v>
+      </c>
+      <c r="B264">
+        <v>8</v>
+      </c>
       <c r="C264">
         <v>237</v>
       </c>
@@ -8112,7 +8613,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="265" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>14</v>
+      </c>
+      <c r="B265">
+        <v>8</v>
+      </c>
       <c r="C265">
         <v>164</v>
       </c>
@@ -8132,7 +8639,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="266" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>15</v>
+      </c>
+      <c r="B266">
+        <v>8</v>
+      </c>
       <c r="C266">
         <v>207</v>
       </c>
@@ -8152,7 +8665,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="267" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>16</v>
+      </c>
+      <c r="B267">
+        <v>8</v>
+      </c>
       <c r="C267">
         <v>211</v>
       </c>
@@ -8172,7 +8691,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="268" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>17</v>
+      </c>
+      <c r="B268">
+        <v>8</v>
+      </c>
       <c r="C268">
         <v>234</v>
       </c>
@@ -8192,7 +8717,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="269" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>18</v>
+      </c>
+      <c r="B269">
+        <v>8</v>
+      </c>
       <c r="C269">
         <v>260</v>
       </c>
@@ -8212,7 +8743,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="270" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>19</v>
+      </c>
+      <c r="B270">
+        <v>8</v>
+      </c>
       <c r="C270">
         <v>205</v>
       </c>
@@ -8232,7 +8769,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="271" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>20</v>
+      </c>
+      <c r="B271">
+        <v>8</v>
+      </c>
       <c r="C271">
         <v>229</v>
       </c>
@@ -8252,7 +8795,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="272" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>21</v>
+      </c>
+      <c r="B272">
+        <v>8</v>
+      </c>
       <c r="C272">
         <v>152</v>
       </c>
@@ -8272,7 +8821,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="273" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>22</v>
+      </c>
+      <c r="B273">
+        <v>8</v>
+      </c>
       <c r="C273">
         <v>254</v>
       </c>
@@ -8292,7 +8847,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="274" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>23</v>
+      </c>
+      <c r="B274">
+        <v>8</v>
+      </c>
       <c r="C274">
         <v>243</v>
       </c>
@@ -8312,7 +8873,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="275" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>24</v>
+      </c>
+      <c r="B275">
+        <v>8</v>
+      </c>
       <c r="C275">
         <v>246</v>
       </c>
@@ -8332,7 +8899,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="276" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>25</v>
+      </c>
+      <c r="B276">
+        <v>8</v>
+      </c>
       <c r="C276">
         <v>192</v>
       </c>
@@ -8352,7 +8925,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="277" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>26</v>
+      </c>
+      <c r="B277">
+        <v>8</v>
+      </c>
       <c r="C277">
         <v>221</v>
       </c>
@@ -8372,7 +8951,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="278" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>27</v>
+      </c>
+      <c r="B278">
+        <v>8</v>
+      </c>
       <c r="C278">
         <v>225</v>
       </c>
@@ -8392,7 +8977,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="279" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>28</v>
+      </c>
+      <c r="B279">
+        <v>8</v>
+      </c>
       <c r="C279">
         <v>185</v>
       </c>
@@ -8412,7 +9003,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="280" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>29</v>
+      </c>
+      <c r="B280">
+        <v>8</v>
+      </c>
       <c r="C280">
         <v>173</v>
       </c>
@@ -8432,7 +9029,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="281" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>30</v>
+      </c>
+      <c r="B281">
+        <v>8</v>
+      </c>
       <c r="C281">
         <v>188</v>
       </c>
@@ -8452,7 +9055,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="282" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>31</v>
+      </c>
+      <c r="B282">
+        <v>8</v>
+      </c>
       <c r="C282">
         <v>249</v>
       </c>
@@ -8472,7 +9081,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="283" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>32</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
       <c r="C283">
         <v>242</v>
       </c>
@@ -8492,7 +9107,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="284" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>33</v>
+      </c>
+      <c r="B284">
+        <v>8</v>
+      </c>
       <c r="C284">
         <v>135</v>
       </c>
@@ -8512,7 +9133,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="285" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>34</v>
+      </c>
+      <c r="B285">
+        <v>8</v>
+      </c>
       <c r="C285">
         <v>165</v>
       </c>
@@ -8532,7 +9159,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="286" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>35</v>
+      </c>
+      <c r="B286">
+        <v>8</v>
+      </c>
       <c r="C286">
         <v>162</v>
       </c>
@@ -8552,7 +9185,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="287" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>36</v>
+      </c>
+      <c r="B287">
+        <v>8</v>
+      </c>
       <c r="C287">
         <v>177</v>
       </c>
@@ -8572,7 +9211,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="288" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>37</v>
+      </c>
+      <c r="B288">
+        <v>8</v>
+      </c>
       <c r="C288">
         <v>271</v>
       </c>
@@ -8592,7 +9237,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="289" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>38</v>
+      </c>
+      <c r="B289">
+        <v>8</v>
+      </c>
       <c r="C289">
         <v>246</v>
       </c>
@@ -8612,7 +9263,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="290" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>39</v>
+      </c>
+      <c r="B290">
+        <v>8</v>
+      </c>
       <c r="C290">
         <v>200</v>
       </c>
@@ -8632,7 +9289,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="291" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>40</v>
+      </c>
+      <c r="B291">
+        <v>8</v>
+      </c>
       <c r="C291">
         <v>230</v>
       </c>
@@ -8652,7 +9315,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="292" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>41</v>
+      </c>
+      <c r="B292">
+        <v>8</v>
+      </c>
       <c r="C292">
         <v>174</v>
       </c>
@@ -8672,7 +9341,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="293" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>42</v>
+      </c>
+      <c r="B293">
+        <v>8</v>
+      </c>
       <c r="C293">
         <v>195</v>
       </c>
@@ -8692,7 +9367,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="294" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>43</v>
+      </c>
+      <c r="B294">
+        <v>8</v>
+      </c>
       <c r="C294">
         <v>253</v>
       </c>
@@ -8712,7 +9393,13 @@
         <v>202</v>
       </c>
     </row>
-    <row r="295" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>44</v>
+      </c>
+      <c r="B295">
+        <v>8</v>
+      </c>
       <c r="C295">
         <v>296</v>
       </c>
@@ -8732,7 +9419,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>45</v>
+      </c>
+      <c r="B296">
+        <v>8</v>
+      </c>
       <c r="C296">
         <v>302</v>
       </c>
@@ -8752,7 +9445,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>46</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
       <c r="C297">
         <v>269</v>
       </c>
@@ -8772,7 +9471,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="298" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>47</v>
+      </c>
+      <c r="B298">
+        <v>8</v>
+      </c>
       <c r="C298">
         <v>195</v>
       </c>
@@ -8792,7 +9497,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>48</v>
+      </c>
+      <c r="B299">
+        <v>8</v>
+      </c>
       <c r="C299">
         <v>235</v>
       </c>
@@ -8812,7 +9523,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="300" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>49</v>
+      </c>
+      <c r="B300">
+        <v>8</v>
+      </c>
       <c r="C300">
         <v>208</v>
       </c>
@@ -8832,7 +9549,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="301" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>50</v>
+      </c>
+      <c r="B301">
+        <v>8</v>
+      </c>
       <c r="C301">
         <v>261</v>
       </c>
@@ -8852,7 +9575,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="302" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>9</v>
+      </c>
       <c r="C302">
         <v>178</v>
       </c>
@@ -8872,7 +9601,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="303" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303">
+        <v>9</v>
+      </c>
       <c r="C303">
         <v>223</v>
       </c>
@@ -8892,7 +9627,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="304" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>3</v>
+      </c>
+      <c r="B304">
+        <v>9</v>
+      </c>
       <c r="C304">
         <v>234</v>
       </c>
@@ -8912,7 +9653,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="305" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>4</v>
+      </c>
+      <c r="B305">
+        <v>9</v>
+      </c>
       <c r="C305">
         <v>186</v>
       </c>
@@ -8932,7 +9679,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="306" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>5</v>
+      </c>
+      <c r="B306">
+        <v>9</v>
+      </c>
       <c r="C306">
         <v>221</v>
       </c>
@@ -8952,7 +9705,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>6</v>
+      </c>
+      <c r="B307">
+        <v>9</v>
+      </c>
       <c r="C307">
         <v>244</v>
       </c>
@@ -8972,7 +9731,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="308" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>7</v>
+      </c>
+      <c r="B308">
+        <v>9</v>
+      </c>
       <c r="C308">
         <v>236</v>
       </c>
@@ -8992,7 +9757,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="309" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>8</v>
+      </c>
+      <c r="B309">
+        <v>9</v>
+      </c>
       <c r="C309">
         <v>170</v>
       </c>
@@ -9012,7 +9783,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="310" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>9</v>
+      </c>
+      <c r="B310">
+        <v>9</v>
+      </c>
       <c r="C310">
         <v>216</v>
       </c>
@@ -9032,7 +9809,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="311" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>10</v>
+      </c>
+      <c r="B311">
+        <v>9</v>
+      </c>
       <c r="C311">
         <v>227</v>
       </c>
@@ -9052,7 +9835,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="312" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>11</v>
+      </c>
+      <c r="B312">
+        <v>9</v>
+      </c>
       <c r="C312">
         <v>204</v>
       </c>
@@ -9072,7 +9861,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="313" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>12</v>
+      </c>
+      <c r="B313">
+        <v>9</v>
+      </c>
       <c r="C313">
         <v>239</v>
       </c>
@@ -9092,7 +9887,13 @@
         <v>211</v>
       </c>
     </row>
-    <row r="314" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>13</v>
+      </c>
+      <c r="B314">
+        <v>9</v>
+      </c>
       <c r="C314">
         <v>206</v>
       </c>
@@ -9112,7 +9913,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="315" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>14</v>
+      </c>
+      <c r="B315">
+        <v>9</v>
+      </c>
       <c r="C315">
         <v>196</v>
       </c>
@@ -9132,7 +9939,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="316" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>15</v>
+      </c>
+      <c r="B316">
+        <v>9</v>
+      </c>
       <c r="C316">
         <v>275</v>
       </c>
@@ -9152,7 +9965,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="317" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>16</v>
+      </c>
+      <c r="B317">
+        <v>9</v>
+      </c>
       <c r="C317">
         <v>271</v>
       </c>
@@ -9172,7 +9991,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="318" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>17</v>
+      </c>
+      <c r="B318">
+        <v>9</v>
+      </c>
       <c r="C318">
         <v>233</v>
       </c>
@@ -9192,7 +10017,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="319" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>18</v>
+      </c>
+      <c r="B319">
+        <v>9</v>
+      </c>
       <c r="C319">
         <v>242</v>
       </c>
@@ -9212,7 +10043,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="320" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>19</v>
+      </c>
+      <c r="B320">
+        <v>9</v>
+      </c>
       <c r="C320">
         <v>225</v>
       </c>
@@ -9232,7 +10069,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="321" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>20</v>
+      </c>
+      <c r="B321">
+        <v>9</v>
+      </c>
       <c r="C321">
         <v>150</v>
       </c>
@@ -9252,7 +10095,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="322" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>21</v>
+      </c>
+      <c r="B322">
+        <v>9</v>
+      </c>
       <c r="C322">
         <v>206</v>
       </c>
@@ -9272,7 +10121,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="323" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>22</v>
+      </c>
+      <c r="B323">
+        <v>9</v>
+      </c>
       <c r="C323">
         <v>163</v>
       </c>
@@ -9292,7 +10147,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="324" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>23</v>
+      </c>
+      <c r="B324">
+        <v>9</v>
+      </c>
       <c r="C324">
         <v>169</v>
       </c>
@@ -9312,7 +10173,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="325" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>24</v>
+      </c>
+      <c r="B325">
+        <v>9</v>
+      </c>
       <c r="C325">
         <v>229</v>
       </c>
@@ -9332,7 +10199,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>25</v>
+      </c>
+      <c r="B326">
+        <v>9</v>
+      </c>
       <c r="C326">
         <v>244</v>
       </c>
@@ -9352,7 +10225,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="327" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>26</v>
+      </c>
+      <c r="B327">
+        <v>9</v>
+      </c>
       <c r="C327">
         <v>300</v>
       </c>
@@ -9372,7 +10251,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="328" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>27</v>
+      </c>
+      <c r="B328">
+        <v>9</v>
+      </c>
       <c r="C328">
         <v>245</v>
       </c>
@@ -9392,7 +10277,13 @@
         <v>208</v>
       </c>
     </row>
-    <row r="329" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>28</v>
+      </c>
+      <c r="B329">
+        <v>9</v>
+      </c>
       <c r="C329">
         <v>244</v>
       </c>
@@ -9412,7 +10303,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="330" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>29</v>
+      </c>
+      <c r="B330">
+        <v>9</v>
+      </c>
       <c r="C330">
         <v>218</v>
       </c>
@@ -9432,7 +10329,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="331" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>30</v>
+      </c>
+      <c r="B331">
+        <v>9</v>
+      </c>
       <c r="C331">
         <v>255</v>
       </c>
@@ -9452,7 +10355,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="332" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>31</v>
+      </c>
+      <c r="B332">
+        <v>9</v>
+      </c>
       <c r="C332">
         <v>204</v>
       </c>
@@ -9472,7 +10381,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="333" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>32</v>
+      </c>
+      <c r="B333">
+        <v>9</v>
+      </c>
       <c r="C333">
         <v>228</v>
       </c>
@@ -9492,7 +10407,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="334" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>33</v>
+      </c>
+      <c r="B334">
+        <v>9</v>
+      </c>
       <c r="C334">
         <v>259</v>
       </c>
@@ -9512,7 +10433,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="335" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>34</v>
+      </c>
+      <c r="B335">
+        <v>9</v>
+      </c>
       <c r="C335">
         <v>180</v>
       </c>
@@ -9532,7 +10459,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="336" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>35</v>
+      </c>
+      <c r="B336">
+        <v>9</v>
+      </c>
       <c r="C336">
         <v>246</v>
       </c>
@@ -9552,7 +10485,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="337" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>36</v>
+      </c>
+      <c r="B337">
+        <v>9</v>
+      </c>
       <c r="C337">
         <v>255</v>
       </c>
@@ -9572,7 +10511,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="338" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>37</v>
+      </c>
+      <c r="B338">
+        <v>9</v>
+      </c>
       <c r="C338">
         <v>195</v>
       </c>
@@ -9592,7 +10537,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="339" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>38</v>
+      </c>
+      <c r="B339">
+        <v>9</v>
+      </c>
       <c r="C339">
         <v>219</v>
       </c>
@@ -9612,7 +10563,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="340" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>39</v>
+      </c>
+      <c r="B340">
+        <v>9</v>
+      </c>
       <c r="C340">
         <v>281</v>
       </c>
@@ -9632,7 +10589,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="341" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>40</v>
+      </c>
+      <c r="B341">
+        <v>9</v>
+      </c>
       <c r="C341">
         <v>220</v>
       </c>
@@ -9652,7 +10615,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="342" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>41</v>
+      </c>
+      <c r="B342">
+        <v>9</v>
+      </c>
       <c r="C342">
         <v>248</v>
       </c>
@@ -9672,7 +10641,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="343" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>42</v>
+      </c>
+      <c r="B343">
+        <v>9</v>
+      </c>
       <c r="C343">
         <v>273</v>
       </c>
@@ -9692,7 +10667,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="344" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>43</v>
+      </c>
+      <c r="B344">
+        <v>9</v>
+      </c>
       <c r="C344">
         <v>233</v>
       </c>
@@ -9712,7 +10693,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="345" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>44</v>
+      </c>
+      <c r="B345">
+        <v>9</v>
+      </c>
       <c r="C345">
         <v>212</v>
       </c>
@@ -9732,7 +10719,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="346" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>45</v>
+      </c>
+      <c r="B346">
+        <v>9</v>
+      </c>
       <c r="C346">
         <v>238</v>
       </c>
@@ -9752,7 +10745,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="347" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>46</v>
+      </c>
+      <c r="B347">
+        <v>9</v>
+      </c>
       <c r="C347">
         <v>283</v>
       </c>
@@ -9772,7 +10771,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="348" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>47</v>
+      </c>
+      <c r="B348">
+        <v>9</v>
+      </c>
       <c r="C348">
         <v>206</v>
       </c>
@@ -9792,7 +10797,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="349" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>48</v>
+      </c>
+      <c r="B349">
+        <v>9</v>
+      </c>
       <c r="C349">
         <v>158</v>
       </c>
@@ -9812,7 +10823,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="350" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>49</v>
+      </c>
+      <c r="B350">
+        <v>9</v>
+      </c>
       <c r="C350">
         <v>214</v>
       </c>
@@ -9832,7 +10849,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="351" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>50</v>
+      </c>
+      <c r="B351">
+        <v>9</v>
+      </c>
       <c r="C351">
         <v>250</v>
       </c>
@@ -9852,7 +10875,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="352" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352">
+        <v>10</v>
+      </c>
       <c r="C352">
         <v>148</v>
       </c>
@@ -9872,7 +10901,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="353" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353">
+        <v>10</v>
+      </c>
       <c r="C353">
         <v>224</v>
       </c>
@@ -9892,7 +10927,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="354" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>10</v>
+      </c>
       <c r="C354">
         <v>244</v>
       </c>
@@ -9912,7 +10953,13 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>4</v>
+      </c>
+      <c r="B355">
+        <v>10</v>
+      </c>
       <c r="C355">
         <v>177</v>
       </c>
@@ -9932,7 +10979,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="356" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>5</v>
+      </c>
+      <c r="B356">
+        <v>10</v>
+      </c>
       <c r="C356">
         <v>256</v>
       </c>
@@ -9952,7 +11005,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="357" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>6</v>
+      </c>
+      <c r="B357">
+        <v>10</v>
+      </c>
       <c r="C357">
         <v>239</v>
       </c>
@@ -9972,7 +11031,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="358" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>7</v>
+      </c>
+      <c r="B358">
+        <v>10</v>
+      </c>
       <c r="C358">
         <v>217</v>
       </c>
@@ -9992,7 +11057,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="359" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>8</v>
+      </c>
+      <c r="B359">
+        <v>10</v>
+      </c>
       <c r="C359">
         <v>179</v>
       </c>
@@ -10012,7 +11083,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="360" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>9</v>
+      </c>
+      <c r="B360">
+        <v>10</v>
+      </c>
       <c r="C360">
         <v>193</v>
       </c>
@@ -10032,7 +11109,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="361" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>10</v>
+      </c>
+      <c r="B361">
+        <v>10</v>
+      </c>
       <c r="C361">
         <v>197</v>
       </c>
@@ -10052,7 +11135,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="362" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>11</v>
+      </c>
+      <c r="B362">
+        <v>10</v>
+      </c>
       <c r="C362">
         <v>273</v>
       </c>
@@ -10072,7 +11161,13 @@
         <v>244</v>
       </c>
     </row>
-    <row r="363" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>12</v>
+      </c>
+      <c r="B363">
+        <v>10</v>
+      </c>
       <c r="C363">
         <v>238</v>
       </c>
@@ -10092,7 +11187,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="364" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>13</v>
+      </c>
+      <c r="B364">
+        <v>10</v>
+      </c>
       <c r="C364">
         <v>199</v>
       </c>
@@ -10112,7 +11213,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="365" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>14</v>
+      </c>
+      <c r="B365">
+        <v>10</v>
+      </c>
       <c r="C365">
         <v>223</v>
       </c>
@@ -10132,7 +11239,13 @@
         <v>202</v>
       </c>
     </row>
-    <row r="366" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>15</v>
+      </c>
+      <c r="B366">
+        <v>10</v>
+      </c>
       <c r="C366">
         <v>258</v>
       </c>
@@ -10152,7 +11265,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="367" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>16</v>
+      </c>
+      <c r="B367">
+        <v>10</v>
+      </c>
       <c r="C367">
         <v>257</v>
       </c>
@@ -10172,7 +11291,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="368" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>17</v>
+      </c>
+      <c r="B368">
+        <v>10</v>
+      </c>
       <c r="C368">
         <v>174</v>
       </c>
@@ -10192,7 +11317,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="369" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>18</v>
+      </c>
+      <c r="B369">
+        <v>10</v>
+      </c>
       <c r="C369">
         <v>225</v>
       </c>
@@ -10212,7 +11343,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="370" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>19</v>
+      </c>
+      <c r="B370">
+        <v>10</v>
+      </c>
       <c r="C370">
         <v>148</v>
       </c>
@@ -10232,7 +11369,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="371" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>20</v>
+      </c>
+      <c r="B371">
+        <v>10</v>
+      </c>
       <c r="C371">
         <v>157</v>
       </c>
@@ -10252,7 +11395,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="372" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>21</v>
+      </c>
+      <c r="B372">
+        <v>10</v>
+      </c>
       <c r="C372">
         <v>194</v>
       </c>
@@ -10272,7 +11421,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="373" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>22</v>
+      </c>
+      <c r="B373">
+        <v>10</v>
+      </c>
       <c r="C373">
         <v>254</v>
       </c>
@@ -10292,7 +11447,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="374" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>23</v>
+      </c>
+      <c r="B374">
+        <v>10</v>
+      </c>
       <c r="C374">
         <v>200</v>
       </c>
@@ -10312,7 +11473,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="375" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>24</v>
+      </c>
+      <c r="B375">
+        <v>10</v>
+      </c>
       <c r="C375">
         <v>218</v>
       </c>
@@ -10332,7 +11499,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="376" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>25</v>
+      </c>
+      <c r="B376">
+        <v>10</v>
+      </c>
       <c r="C376">
         <v>180</v>
       </c>
@@ -10352,7 +11525,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="377" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>26</v>
+      </c>
+      <c r="B377">
+        <v>10</v>
+      </c>
       <c r="C377">
         <v>217</v>
       </c>
@@ -10372,7 +11551,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="378" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>27</v>
+      </c>
+      <c r="B378">
+        <v>10</v>
+      </c>
       <c r="C378">
         <v>201</v>
       </c>
@@ -10392,7 +11577,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="379" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>28</v>
+      </c>
+      <c r="B379">
+        <v>10</v>
+      </c>
       <c r="C379">
         <v>156</v>
       </c>
@@ -10412,7 +11603,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="380" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>29</v>
+      </c>
+      <c r="B380">
+        <v>10</v>
+      </c>
       <c r="C380">
         <v>230</v>
       </c>
@@ -10432,7 +11629,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="381" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>30</v>
+      </c>
+      <c r="B381">
+        <v>10</v>
+      </c>
       <c r="C381">
         <v>231</v>
       </c>
@@ -10452,7 +11655,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="382" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>31</v>
+      </c>
+      <c r="B382">
+        <v>10</v>
+      </c>
       <c r="C382">
         <v>211</v>
       </c>
@@ -10472,7 +11681,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="383" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>32</v>
+      </c>
+      <c r="B383">
+        <v>10</v>
+      </c>
       <c r="C383">
         <v>227</v>
       </c>
@@ -10492,7 +11707,13 @@
         <v>230</v>
       </c>
     </row>
-    <row r="384" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>33</v>
+      </c>
+      <c r="B384">
+        <v>10</v>
+      </c>
       <c r="C384">
         <v>156</v>
       </c>
@@ -10512,7 +11733,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="385" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>34</v>
+      </c>
+      <c r="B385">
+        <v>10</v>
+      </c>
       <c r="C385">
         <v>208</v>
       </c>
@@ -10532,7 +11759,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="386" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>35</v>
+      </c>
+      <c r="B386">
+        <v>10</v>
+      </c>
       <c r="C386">
         <v>218</v>
       </c>
@@ -10552,7 +11785,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="387" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>36</v>
+      </c>
+      <c r="B387">
+        <v>10</v>
+      </c>
       <c r="C387">
         <v>282</v>
       </c>
@@ -10572,7 +11811,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="388" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>37</v>
+      </c>
+      <c r="B388">
+        <v>10</v>
+      </c>
       <c r="C388">
         <v>237</v>
       </c>
@@ -10592,7 +11837,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="389" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>38</v>
+      </c>
+      <c r="B389">
+        <v>10</v>
+      </c>
       <c r="C389">
         <v>185</v>
       </c>
@@ -10612,7 +11863,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="390" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>39</v>
+      </c>
+      <c r="B390">
+        <v>10</v>
+      </c>
       <c r="C390">
         <v>226</v>
       </c>
@@ -10632,7 +11889,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="391" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>40</v>
+      </c>
+      <c r="B391">
+        <v>10</v>
+      </c>
       <c r="C391">
         <v>167</v>
       </c>
@@ -10652,7 +11915,13 @@
         <v>190</v>
       </c>
     </row>
-    <row r="392" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>41</v>
+      </c>
+      <c r="B392">
+        <v>10</v>
+      </c>
       <c r="C392">
         <v>170</v>
       </c>
@@ -10672,7 +11941,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="393" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>42</v>
+      </c>
+      <c r="B393">
+        <v>10</v>
+      </c>
       <c r="C393">
         <v>189</v>
       </c>
@@ -10692,7 +11967,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="394" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>43</v>
+      </c>
+      <c r="B394">
+        <v>10</v>
+      </c>
       <c r="C394">
         <v>158</v>
       </c>
@@ -10712,7 +11993,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="395" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>44</v>
+      </c>
+      <c r="B395">
+        <v>10</v>
+      </c>
       <c r="C395">
         <v>195</v>
       </c>
@@ -10732,7 +12019,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="396" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>45</v>
+      </c>
+      <c r="B396">
+        <v>10</v>
+      </c>
       <c r="C396">
         <v>296</v>
       </c>
@@ -10752,7 +12045,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="397" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>46</v>
+      </c>
+      <c r="B397">
+        <v>10</v>
+      </c>
       <c r="C397">
         <v>227</v>
       </c>
@@ -10772,7 +12071,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="398" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>47</v>
+      </c>
+      <c r="B398">
+        <v>10</v>
+      </c>
       <c r="C398">
         <v>219</v>
       </c>
@@ -10792,7 +12097,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="399" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>48</v>
+      </c>
+      <c r="B399">
+        <v>10</v>
+      </c>
       <c r="C399">
         <v>216</v>
       </c>
@@ -10812,7 +12123,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="400" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>49</v>
+      </c>
+      <c r="B400">
+        <v>10</v>
+      </c>
       <c r="C400">
         <v>197</v>
       </c>
@@ -10832,7 +12149,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="401" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>50</v>
+      </c>
+      <c r="B401">
+        <v>10</v>
+      </c>
       <c r="C401">
         <v>286</v>
       </c>
@@ -10852,7 +12175,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="402" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>1</v>
+      </c>
+      <c r="B402">
+        <v>11</v>
+      </c>
       <c r="C402">
         <v>230</v>
       </c>
@@ -10872,7 +12201,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="403" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>2</v>
+      </c>
+      <c r="B403">
+        <v>11</v>
+      </c>
       <c r="C403">
         <v>191</v>
       </c>
@@ -10892,7 +12227,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="404" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>3</v>
+      </c>
+      <c r="B404">
+        <v>11</v>
+      </c>
       <c r="C404">
         <v>222</v>
       </c>
@@ -10912,7 +12253,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="405" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>4</v>
+      </c>
+      <c r="B405">
+        <v>11</v>
+      </c>
       <c r="C405">
         <v>213</v>
       </c>
@@ -10932,7 +12279,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="406" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>5</v>
+      </c>
+      <c r="B406">
+        <v>11</v>
+      </c>
       <c r="C406">
         <v>215</v>
       </c>
@@ -10952,7 +12305,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="407" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>6</v>
+      </c>
+      <c r="B407">
+        <v>11</v>
+      </c>
       <c r="C407">
         <v>183</v>
       </c>
@@ -10972,7 +12331,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="408" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>7</v>
+      </c>
+      <c r="B408">
+        <v>11</v>
+      </c>
       <c r="C408">
         <v>256</v>
       </c>
@@ -10992,7 +12357,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="409" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>8</v>
+      </c>
+      <c r="B409">
+        <v>11</v>
+      </c>
       <c r="C409">
         <v>197</v>
       </c>
@@ -11012,7 +12383,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="410" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>9</v>
+      </c>
+      <c r="B410">
+        <v>11</v>
+      </c>
       <c r="C410">
         <v>200</v>
       </c>
@@ -11032,7 +12409,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="411" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>10</v>
+      </c>
+      <c r="B411">
+        <v>11</v>
+      </c>
       <c r="C411">
         <v>165</v>
       </c>
@@ -11052,7 +12435,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="412" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>11</v>
+      </c>
+      <c r="B412">
+        <v>11</v>
+      </c>
       <c r="C412">
         <v>203</v>
       </c>
@@ -11072,7 +12461,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="413" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>12</v>
+      </c>
+      <c r="B413">
+        <v>11</v>
+      </c>
       <c r="C413">
         <v>211</v>
       </c>
@@ -11092,7 +12487,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="414" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>13</v>
+      </c>
+      <c r="B414">
+        <v>11</v>
+      </c>
       <c r="C414">
         <v>246</v>
       </c>
@@ -11112,7 +12513,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="415" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>14</v>
+      </c>
+      <c r="B415">
+        <v>11</v>
+      </c>
       <c r="C415">
         <v>184</v>
       </c>
@@ -11132,7 +12539,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="416" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>15</v>
+      </c>
+      <c r="B416">
+        <v>11</v>
+      </c>
       <c r="C416">
         <v>287</v>
       </c>
@@ -11152,7 +12565,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="417" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>16</v>
+      </c>
+      <c r="B417">
+        <v>11</v>
+      </c>
       <c r="C417">
         <v>258</v>
       </c>
@@ -11172,7 +12591,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="418" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>17</v>
+      </c>
+      <c r="B418">
+        <v>11</v>
+      </c>
       <c r="C418">
         <v>209</v>
       </c>
@@ -11192,7 +12617,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="419" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>18</v>
+      </c>
+      <c r="B419">
+        <v>11</v>
+      </c>
       <c r="C419">
         <v>126</v>
       </c>
@@ -11212,7 +12643,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="420" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>19</v>
+      </c>
+      <c r="B420">
+        <v>11</v>
+      </c>
       <c r="C420">
         <v>209</v>
       </c>
@@ -11232,7 +12669,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="421" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>20</v>
+      </c>
+      <c r="B421">
+        <v>11</v>
+      </c>
       <c r="C421">
         <v>177</v>
       </c>
@@ -11252,7 +12695,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="422" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>21</v>
+      </c>
+      <c r="B422">
+        <v>11</v>
+      </c>
       <c r="C422">
         <v>209</v>
       </c>
@@ -11272,7 +12721,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="423" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>22</v>
+      </c>
+      <c r="B423">
+        <v>11</v>
+      </c>
       <c r="C423">
         <v>175</v>
       </c>
@@ -11292,7 +12747,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="424" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>23</v>
+      </c>
+      <c r="B424">
+        <v>11</v>
+      </c>
       <c r="C424">
         <v>219</v>
       </c>
@@ -11312,7 +12773,13 @@
         <v>224</v>
       </c>
     </row>
-    <row r="425" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>24</v>
+      </c>
+      <c r="B425">
+        <v>11</v>
+      </c>
       <c r="C425">
         <v>171</v>
       </c>
@@ -11332,7 +12799,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="426" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>25</v>
+      </c>
+      <c r="B426">
+        <v>11</v>
+      </c>
       <c r="C426">
         <v>207</v>
       </c>
@@ -11352,7 +12825,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="427" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>26</v>
+      </c>
+      <c r="B427">
+        <v>11</v>
+      </c>
       <c r="C427">
         <v>157</v>
       </c>
@@ -11372,7 +12851,13 @@
         <v>208</v>
       </c>
     </row>
-    <row r="428" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>27</v>
+      </c>
+      <c r="B428">
+        <v>11</v>
+      </c>
       <c r="C428">
         <v>202</v>
       </c>
@@ -11392,7 +12877,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="429" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>28</v>
+      </c>
+      <c r="B429">
+        <v>11</v>
+      </c>
       <c r="C429">
         <v>235</v>
       </c>
@@ -11412,7 +12903,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="430" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>29</v>
+      </c>
+      <c r="B430">
+        <v>11</v>
+      </c>
       <c r="C430">
         <v>222</v>
       </c>
@@ -11432,7 +12929,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="431" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>30</v>
+      </c>
+      <c r="B431">
+        <v>11</v>
+      </c>
       <c r="C431">
         <v>209</v>
       </c>
@@ -11452,7 +12955,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="432" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>31</v>
+      </c>
+      <c r="B432">
+        <v>11</v>
+      </c>
       <c r="C432">
         <v>158</v>
       </c>
@@ -11472,7 +12981,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="433" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>32</v>
+      </c>
+      <c r="B433">
+        <v>11</v>
+      </c>
       <c r="C433">
         <v>235</v>
       </c>
@@ -11492,7 +13007,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="434" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>33</v>
+      </c>
+      <c r="B434">
+        <v>11</v>
+      </c>
       <c r="C434">
         <v>163</v>
       </c>
@@ -11512,7 +13033,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="435" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>34</v>
+      </c>
+      <c r="B435">
+        <v>11</v>
+      </c>
       <c r="C435">
         <v>173</v>
       </c>
@@ -11532,7 +13059,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="436" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>35</v>
+      </c>
+      <c r="B436">
+        <v>11</v>
+      </c>
       <c r="C436">
         <v>166</v>
       </c>
@@ -11552,7 +13085,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="437" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>36</v>
+      </c>
+      <c r="B437">
+        <v>11</v>
+      </c>
       <c r="C437">
         <v>256</v>
       </c>
@@ -11572,7 +13111,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="438" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>37</v>
+      </c>
+      <c r="B438">
+        <v>11</v>
+      </c>
       <c r="C438">
         <v>224</v>
       </c>
@@ -11592,7 +13137,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="439" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>38</v>
+      </c>
+      <c r="B439">
+        <v>11</v>
+      </c>
       <c r="C439">
         <v>181</v>
       </c>
@@ -11612,7 +13163,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="440" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>39</v>
+      </c>
+      <c r="B440">
+        <v>11</v>
+      </c>
       <c r="C440">
         <v>207</v>
       </c>
@@ -11632,7 +13189,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="441" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>40</v>
+      </c>
+      <c r="B441">
+        <v>11</v>
+      </c>
       <c r="C441">
         <v>257</v>
       </c>
@@ -11652,7 +13215,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="442" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>41</v>
+      </c>
+      <c r="B442">
+        <v>11</v>
+      </c>
       <c r="C442">
         <v>247</v>
       </c>
@@ -11672,7 +13241,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="443" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>42</v>
+      </c>
+      <c r="B443">
+        <v>11</v>
+      </c>
       <c r="C443">
         <v>140</v>
       </c>
@@ -11692,7 +13267,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="444" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>43</v>
+      </c>
+      <c r="B444">
+        <v>11</v>
+      </c>
       <c r="C444">
         <v>196</v>
       </c>
@@ -11712,7 +13293,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="445" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>44</v>
+      </c>
+      <c r="B445">
+        <v>11</v>
+      </c>
       <c r="C445">
         <v>118</v>
       </c>
@@ -11732,7 +13319,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="446" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>45</v>
+      </c>
+      <c r="B446">
+        <v>11</v>
+      </c>
       <c r="C446">
         <v>153</v>
       </c>
@@ -11752,7 +13345,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="447" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>46</v>
+      </c>
+      <c r="B447">
+        <v>11</v>
+      </c>
       <c r="C447">
         <v>257</v>
       </c>
@@ -11772,7 +13371,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="448" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>47</v>
+      </c>
+      <c r="B448">
+        <v>11</v>
+      </c>
       <c r="C448">
         <v>235</v>
       </c>
@@ -11792,7 +13397,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="449" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>48</v>
+      </c>
+      <c r="B449">
+        <v>11</v>
+      </c>
       <c r="C449">
         <v>215</v>
       </c>
@@ -11812,7 +13423,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="450" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>49</v>
+      </c>
+      <c r="B450">
+        <v>11</v>
+      </c>
       <c r="C450">
         <v>223</v>
       </c>
@@ -11832,7 +13449,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="451" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>50</v>
+      </c>
+      <c r="B451">
+        <v>11</v>
+      </c>
       <c r="C451">
         <v>224</v>
       </c>

--- a/Gesamt-Ergebnisse.xlsx
+++ b/Gesamt-Ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18709375-F6FB-4C39-941A-485219A08148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006F4363-9778-40B9-A7D3-50F1628BB54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Experiment</t>
   </si>
@@ -71,9 +71,6 @@
     <t>optimal_lp_rand</t>
   </si>
   <si>
-    <t>optimal_lp_normal</t>
-  </si>
-  <si>
     <t>Anzahl Roboter</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Varianz</t>
+  </si>
+  <si>
+    <t>optimal_l∞_rand</t>
+  </si>
+  <si>
+    <t>optimal_l∞_normal</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.9</cx:f>
-              <cx:v>optimal_lp_normal</cx:v>
+              <cx:v>optimal_l∞_normal</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="4"/>
@@ -320,7 +323,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.11</cx:f>
-              <cx:v>optimal_lp_rand</cx:v>
+              <cx:v>optimal_l∞_rand</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="5"/>
@@ -1371,8 +1374,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AA451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="65" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1400,10 +1403,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
@@ -1412,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1430,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>10</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -2270,16 +2273,16 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>9</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
